--- a/core/utils/data/test_suite.xlsx
+++ b/core/utils/data/test_suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19725" windowHeight="7695" activeTab="2"/>
+    <workbookView windowWidth="19725" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="google" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>run</t>
   </si>
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,6 +92,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -100,10 +137,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,7 +169,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,48 +183,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,23 +206,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,7 +223,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,21 +231,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,25 +251,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,7 +407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,139 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,6 +450,39 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,17 +511,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -500,15 +522,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,41 +541,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -572,130 +572,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,7 +1090,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1149,12 +1149,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1174,7 +1171,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>

--- a/core/utils/data/test_suite.xlsx
+++ b/core/utils/data/test_suite.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19725" windowHeight="7695" activeTab="1"/>
+    <workbookView windowWidth="19725" windowHeight="7695" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="google" sheetId="1" r:id="rId1"/>
     <sheet name="app1" sheetId="2" r:id="rId2"/>
     <sheet name="module" sheetId="3" r:id="rId3"/>
     <sheet name="weathermap" sheetId="4" r:id="rId4"/>
+    <sheet name="cupid" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>run</t>
   </si>
@@ -34,43 +35,46 @@
     <t>test_intro_page.py</t>
   </si>
   <si>
+    <t>test_navigation.py</t>
+  </si>
+  <si>
+    <t>test_write_excel.py</t>
+  </si>
+  <si>
+    <t>test_1.py</t>
+  </si>
+  <si>
+    <t>test_2.py</t>
+  </si>
+  <si>
+    <t>test_3.py</t>
+  </si>
+  <si>
+    <t>test_4.py</t>
+  </si>
+  <si>
+    <t>test_5.py</t>
+  </si>
+  <si>
+    <t>test_6.py</t>
+  </si>
+  <si>
+    <t>test_module.py</t>
+  </si>
+  <si>
+    <t>test_module1.py</t>
+  </si>
+  <si>
+    <t>test_module2.py</t>
+  </si>
+  <si>
+    <t>test_city_weather.py</t>
+  </si>
+  <si>
+    <t>profiles.py</t>
+  </si>
+  <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>test_navigation.py</t>
-  </si>
-  <si>
-    <t>test_write_excel.py</t>
-  </si>
-  <si>
-    <t>test_1.py</t>
-  </si>
-  <si>
-    <t>test_2.py</t>
-  </si>
-  <si>
-    <t>test_3.py</t>
-  </si>
-  <si>
-    <t>test_4.py</t>
-  </si>
-  <si>
-    <t>test_5.py</t>
-  </si>
-  <si>
-    <t>test_6.py</t>
-  </si>
-  <si>
-    <t>test_module.py</t>
-  </si>
-  <si>
-    <t>test_module1.py</t>
-  </si>
-  <si>
-    <t>test_module2.py</t>
-  </si>
-  <si>
-    <t>test_city_weather.py</t>
   </si>
 </sst>
 </file>
@@ -78,10 +82,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -107,47 +111,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,8 +201,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,16 +217,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,36 +239,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -251,12 +255,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -269,6 +309,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -281,151 +333,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,26 +458,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,6 +501,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -526,21 +545,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -554,15 +558,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -572,130 +576,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,7 +1030,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1055,22 +1059,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1089,8 +1090,8 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1109,49 +1110,34 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1170,8 +1156,8 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1188,22 +1174,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1218,7 +1201,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1237,7 +1220,44 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="33.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="26.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/core/utils/data/test_suite.xlsx
+++ b/core/utils/data/test_suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19725" windowHeight="7695"/>
+    <workbookView windowWidth="19725" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="google" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>run</t>
   </si>
@@ -82,10 +82,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -97,45 +97,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,92 +171,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,181 +255,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,6 +458,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -469,15 +513,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,186 +555,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,7 +1029,7 @@
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
@@ -1105,8 +1105,8 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1133,44 +1133,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/core/utils/data/test_suite.xlsx
+++ b/core/utils/data/test_suite.xlsx
@@ -4,21 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19725" windowHeight="7695" activeTab="1"/>
+    <workbookView windowWidth="15825" windowHeight="7815" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="google" sheetId="1" r:id="rId1"/>
     <sheet name="app1" sheetId="2" r:id="rId2"/>
     <sheet name="module" sheetId="3" r:id="rId3"/>
     <sheet name="weathermap" sheetId="4" r:id="rId4"/>
-    <sheet name="cupid" sheetId="5" r:id="rId5"/>
+    <sheet name="recording_profile" sheetId="5" r:id="rId5"/>
+    <sheet name="sync_service" sheetId="6" r:id="rId6"/>
+    <sheet name="retention" sheetId="7" r:id="rId7"/>
+    <sheet name="call_service" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="18">
   <si>
     <t>run</t>
   </si>
@@ -72,9 +75,6 @@
   </si>
   <si>
     <t>test_city_weather.py</t>
-  </si>
-  <si>
-    <t>profiles.py</t>
   </si>
 </sst>
 </file>
@@ -82,10 +82,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -105,6 +105,98 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,123 +210,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,19 +261,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,19 +369,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,25 +411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,97 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,43 +461,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,6 +493,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,16 +522,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,157 +544,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -1047,7 +1050,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -1105,7 +1108,7 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
@@ -1123,7 +1126,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -1225,13 +1228,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="28.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="38.8571428571429" customWidth="1"/>
@@ -1252,6 +1255,9 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1262,16 +1268,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="33.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="26.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="26.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="8.85714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1284,10 +1290,221 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/core/utils/data/test_suite.xlsx
+++ b/core/utils/data/test_suite.xlsx
@@ -4,24 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15825" windowHeight="7815" firstSheet="4" activeTab="4"/>
+    <workbookView windowWidth="15825" windowHeight="7815" tabRatio="808"/>
   </bookViews>
   <sheets>
     <sheet name="google" sheetId="1" r:id="rId1"/>
-    <sheet name="app1" sheetId="2" r:id="rId2"/>
-    <sheet name="module" sheetId="3" r:id="rId3"/>
-    <sheet name="weathermap" sheetId="4" r:id="rId4"/>
-    <sheet name="recording_profile" sheetId="5" r:id="rId5"/>
-    <sheet name="sync_service" sheetId="6" r:id="rId6"/>
-    <sheet name="retention" sheetId="7" r:id="rId7"/>
-    <sheet name="call_service" sheetId="8" r:id="rId8"/>
+    <sheet name="recording_profile" sheetId="5" r:id="rId2"/>
+    <sheet name="sync_service" sheetId="6" r:id="rId3"/>
+    <sheet name="retention" sheetId="7" r:id="rId4"/>
+    <sheet name="call_service" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t>run</t>
   </si>
@@ -61,31 +58,16 @@
   <si>
     <t>test_6.py</t>
   </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>test_module.py</t>
-  </si>
-  <si>
-    <t>test_module1.py</t>
-  </si>
-  <si>
-    <t>test_module2.py</t>
-  </si>
-  <si>
-    <t>test_city_weather.py</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -105,6 +87,45 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,82 +139,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -212,15 +157,59 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,13 +217,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,13 +243,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,157 +357,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,30 +436,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,6 +479,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -535,38 +537,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -576,140 +558,136 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1032,8 +1010,8 @@
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1050,7 +1028,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -1060,36 +1038,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1106,172 +1072,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="44.5714285714286" customWidth="1"/>
-    <col min="3" max="4" width="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C9">
-      <formula1>"ID, NAME, CSS, XPATH"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="30.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="51.5714285714286" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="28.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="38.8571428571429" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B4" sqref="B4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1288,44 +1092,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -1339,7 +1128,62 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B7"/>
@@ -1383,12 +1227,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1397,13 +1238,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1426,67 +1267,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>9</v>

--- a/core/utils/data/test_suite.xlsx
+++ b/core/utils/data/test_suite.xlsx
@@ -4,41 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15825" windowHeight="7815" tabRatio="808"/>
+    <workbookView windowWidth="24225" windowHeight="12495" tabRatio="808"/>
   </bookViews>
   <sheets>
-    <sheet name="google" sheetId="1" r:id="rId1"/>
-    <sheet name="recording_profile" sheetId="5" r:id="rId2"/>
-    <sheet name="sync_service" sheetId="6" r:id="rId3"/>
-    <sheet name="retention" sheetId="7" r:id="rId4"/>
-    <sheet name="call_service" sheetId="8" r:id="rId5"/>
+    <sheet name="recording_profile" sheetId="5" r:id="rId1"/>
+    <sheet name="sync_service" sheetId="6" r:id="rId2"/>
+    <sheet name="retention" sheetId="7" r:id="rId3"/>
+    <sheet name="call_service" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="8">
   <si>
     <t>run</t>
   </si>
   <si>
     <t>test</t>
-  </si>
-  <si>
-    <t>test_dummy.py</t>
-  </si>
-  <si>
-    <t>test_dummy2.py</t>
-  </si>
-  <si>
-    <t>test_intro_page.py</t>
-  </si>
-  <si>
-    <t>test_navigation.py</t>
-  </si>
-  <si>
-    <t>test_write_excel.py</t>
   </si>
   <si>
     <t>test_1.py</t>
@@ -64,9 +48,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -125,6 +109,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -157,6 +148,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -164,59 +177,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,13 +221,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,133 +389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,52 +399,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,11 +450,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,15 +462,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,6 +477,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,155 +509,155 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1008,17 +977,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="28.8952380952381" customWidth="1"/>
-    <col min="2" max="2" width="35.6095238095238" customWidth="1"/>
-    <col min="4" max="4" width="43.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="26.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="8.85714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1030,12 +998,9 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1058,13 +1023,13 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C18">
-      <formula1>"ID, NAME, CSS, XPATH, LINK_TEXT, CLASS_NAME"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1072,54 +1037,51 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B6"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="26.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="8.85714285714286" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1131,50 +1093,51 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1186,105 +1149,69 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="B7" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/core/utils/data/test_suite.xlsx
+++ b/core/utils/data/test_suite.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19725" windowHeight="7695" activeTab="1"/>
+    <workbookView windowWidth="19725" windowHeight="7695" tabRatio="808" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="google" sheetId="1" r:id="rId1"/>
-    <sheet name="app1" sheetId="2" r:id="rId2"/>
-    <sheet name="module" sheetId="3" r:id="rId3"/>
-    <sheet name="weathermap" sheetId="4" r:id="rId4"/>
-    <sheet name="cupid" sheetId="5" r:id="rId5"/>
+    <sheet name="recording_profile" sheetId="5" r:id="rId2"/>
+    <sheet name="sync_service" sheetId="6" r:id="rId3"/>
+    <sheet name="retention" sheetId="7" r:id="rId4"/>
+    <sheet name="call_service" sheetId="8" r:id="rId5"/>
+    <sheet name="app1" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="14">
   <si>
     <t>run</t>
   </si>
@@ -59,22 +60,7 @@
     <t>test_6.py</t>
   </si>
   <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>test_module.py</t>
-  </si>
-  <si>
-    <t>test_module1.py</t>
-  </si>
-  <si>
-    <t>test_module2.py</t>
-  </si>
-  <si>
-    <t>test_city_weather.py</t>
-  </si>
-  <si>
-    <t>profiles.py</t>
+    <t>for_fun.py</t>
   </si>
 </sst>
 </file>
@@ -111,6 +97,43 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -118,23 +141,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,9 +165,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,75 +225,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -255,79 +241,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,97 +409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,35 +444,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -498,36 +455,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,162 +478,220 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1030,7 +1015,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1047,46 +1032,31 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1103,34 +1073,29 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="44.5714285714286" customWidth="1"/>
-    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="1" max="1" width="26.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="8.85714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1159,12 +1124,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C9">
-      <formula1>"ID, NAME, CSS, XPATH"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1172,48 +1132,50 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="30.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="51.5714285714286" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1225,17 +1187,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="28.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="38.8571428571429" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -1245,12 +1203,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1262,16 +1242,71 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="33.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="26.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="27.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1284,7 +1319,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>

--- a/core/utils/data/test_suite.xlsx
+++ b/core/utils/data/test_suite.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12495" tabRatio="808"/>
+    <workbookView windowWidth="15825" windowHeight="7815" tabRatio="808" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="recording_profile" sheetId="5" r:id="rId1"/>
     <sheet name="sync_service" sheetId="6" r:id="rId2"/>
     <sheet name="retention" sheetId="7" r:id="rId3"/>
     <sheet name="call_service" sheetId="8" r:id="rId4"/>
+    <sheet name="google" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="9">
   <si>
     <t>run</t>
   </si>
@@ -42,6 +43,9 @@
   <si>
     <t>test_6.py</t>
   </si>
+  <si>
+    <t>test_intro_page.py</t>
+  </si>
 </sst>
 </file>
 
@@ -49,9 +53,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,6 +66,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -69,32 +88,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,6 +112,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -116,7 +142,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,14 +172,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -162,7 +196,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,36 +205,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,6 +225,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -233,13 +249,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,151 +261,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,6 +410,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -420,15 +448,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,26 +476,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,166 +510,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -979,8 +983,8 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:G14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -998,34 +1002,52 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1040,7 +1062,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1054,34 +1076,52 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1096,7 +1136,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1110,34 +1150,52 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1210,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1218,4 +1276,38 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="20.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="32.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>